--- a/hackathon_ht3/data/local_spots.xlsx
+++ b/hackathon_ht3/data/local_spots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/metamorphosis/Github/MachineLearningWorkbook/hackathon_ht3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AA6B58-67B8-D344-B007-D35D19D65108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B502FDE-31C1-544E-8210-09292071C35B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38840" yWindow="5900" windowWidth="28040" windowHeight="17440" xr2:uid="{A5C30610-5D08-2F46-9947-B55BC39E1F0C}"/>
+    <workbookView xWindow="41740" yWindow="10600" windowWidth="21180" windowHeight="8140" xr2:uid="{A5C30610-5D08-2F46-9947-B55BC39E1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
